--- a/Script_files/Canada.xlsx
+++ b/Script_files/Canada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37370f6cb56ebfcd/Documentos/GitHub/r_and_python/Script_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_C4C91CEF406E1F7B81A772B9C1273AF7CBB47095" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAC488FA-B4A6-45FA-BD40-A7DB1DAC4FB8}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_C4C91CEF406E1F7B81A772B9C1273AF7CBB47095" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88D839ED-1470-40FD-8BAE-FF23761AD754}"/>
   <bookViews>
-    <workbookView xWindow="6756" yWindow="2712" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Canada by Citizenship" sheetId="2" r:id="rId1"/>
@@ -3048,8 +3048,8 @@
   <sheetPr codeName="Sheet31"/>
   <dimension ref="A1:AY1036"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="W71" sqref="W71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="10.199999999999999"/>
